--- a/Oblivious Load Balance Simulator/output/plot1_fine_granned.xlsx
+++ b/Oblivious Load Balance Simulator/output/plot1_fine_granned.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="plot1_fine_granned" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -583,48 +583,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="20% - הדגשה1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - הדגשה2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - הדגשה3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - הדגשה4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - הדגשה5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - הדגשה6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - הדגשה1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - הדגשה2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - הדגשה3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - הדגשה4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - הדגשה5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - הדגשה6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - הדגשה1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - הדגשה2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - הדגשה3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - הדגשה4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - הדגשה5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - הדגשה6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="הדגשה1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="הדגשה2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="הדגשה3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="הדגשה4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="הדגשה5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="הדגשה6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="הערה" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="חישוב" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="טוב" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="טקסט אזהרה" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="טקסט הסברי" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="כותרת" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="כותרת 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="כותרת 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="כותרת 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="כותרת 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="ניטראלי" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="סה&quot;כ" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="פלט" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="קלט" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="רע" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="תא מסומן" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="תא מקושר" xfId="12" builtinId="24" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -649,6 +649,15 @@
               <a:t>LP Jobs average time in system/Load</a:t>
             </a:r>
           </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>Infinite Queues</a:t>
+            </a:r>
+          </a:p>
         </c:rich>
       </c:tx>
       <c:layout/>
@@ -673,10 +682,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>plot1_fine_granned!$I$2:$I$20</c:f>
+              <c:f>plot1_fine_granned!$I$2:$I$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0.05</c:v>
                 </c:pt>
@@ -733,16 +742,19 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plot1_fine_granned!$L$2:$L$20</c:f>
+              <c:f>plot1_fine_granned!$L$2:$L$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>2.111445E-2</c:v>
                 </c:pt>
@@ -799,39 +811,80 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>6.0657605400000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>166.87494928999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="95763072"/>
-        <c:axId val="49504640"/>
+        <c:axId val="80312960"/>
+        <c:axId val="80318848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95763072"/>
+        <c:axId val="80312960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Load</a:t>
+                </a:r>
+                <a:endParaRPr lang="he-IL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49504640"/>
+        <c:crossAx val="80318848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49504640"/>
+        <c:axId val="80318848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:endParaRPr lang="he-IL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95763072"/>
+        <c:crossAx val="80312960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -844,7 +897,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -860,13 +913,65 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
-              <a:defRPr/>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
               <a:t>LP Queue average length/Load</a:t>
             </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" baseline="0"/>
+              <a:t>Infinite Queues</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1600"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -892,10 +997,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>plot1_fine_granned!$I$2:$I$20</c:f>
+              <c:f>plot1_fine_granned!$I$2:$I$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0.05</c:v>
                 </c:pt>
@@ -952,16 +1057,19 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plot1_fine_granned!$K$2:$K$20</c:f>
+              <c:f>plot1_fine_granned!$K$2:$K$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>1.2379299999999999E-3</c:v>
                 </c:pt>
@@ -1018,39 +1126,80 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>5.8943741699999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>166.86397353000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="74456448"/>
-        <c:axId val="95781248"/>
+        <c:axId val="80339328"/>
+        <c:axId val="80340864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="74456448"/>
+        <c:axId val="80339328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Load</a:t>
+                </a:r>
+                <a:endParaRPr lang="he-IL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95781248"/>
+        <c:crossAx val="80340864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95781248"/>
+        <c:axId val="80340864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Mem size</a:t>
+                </a:r>
+                <a:endParaRPr lang="he-IL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74456448"/>
+        <c:crossAx val="80339328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1063,7 +1212,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1079,13 +1228,65 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
-              <a:defRPr/>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
               <a:t>HP Queue average length/Load</a:t>
             </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" baseline="0"/>
+              <a:t>Infinite Queues</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1600"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1111,10 +1312,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>plot1_fine_granned!$I$2:$I$20</c:f>
+              <c:f>plot1_fine_granned!$I$2:$I$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0.05</c:v>
                 </c:pt>
@@ -1171,16 +1372,19 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plot1_fine_granned!$N$2:$N$20</c:f>
+              <c:f>plot1_fine_granned!$N$2:$N$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>1.3351000000000001E-3</c:v>
                 </c:pt>
@@ -1237,39 +1441,80 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>5.7883839699999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>166.76904343999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="52446336"/>
-        <c:axId val="52447872"/>
+        <c:axId val="80578048"/>
+        <c:axId val="80579584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="52446336"/>
+        <c:axId val="80578048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Load</a:t>
+                </a:r>
+                <a:endParaRPr lang="he-IL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52447872"/>
+        <c:crossAx val="80579584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52447872"/>
+        <c:axId val="80579584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Mem size</a:t>
+                </a:r>
+                <a:endParaRPr lang="he-IL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52446336"/>
+        <c:crossAx val="80578048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1282,7 +1527,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1298,13 +1543,65 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
-              <a:defRPr/>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
               <a:t>HP Jobs average time in system/Load</a:t>
             </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" baseline="0"/>
+              <a:t>Infinite Queues</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1600"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1330,10 +1627,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>plot1_fine_granned!$I$2:$I$20</c:f>
+              <c:f>plot1_fine_granned!$I$2:$I$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0.05</c:v>
                 </c:pt>
@@ -1390,16 +1687,19 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plot1_fine_granned!$O$2:$O$20</c:f>
+              <c:f>plot1_fine_granned!$O$2:$O$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>4.7559500000000001E-3</c:v>
                 </c:pt>
@@ -1456,45 +1756,421 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>6.09276149</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>166.87681241000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="82888192"/>
-        <c:axId val="82889728"/>
+        <c:axId val="80591488"/>
+        <c:axId val="82055552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="82888192"/>
+        <c:axId val="80591488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Load</a:t>
+                </a:r>
+                <a:endParaRPr lang="he-IL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82889728"/>
+        <c:crossAx val="82055552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82889728"/>
+        <c:axId val="82055552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:endParaRPr lang="he-IL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82888192"/>
+        <c:crossAx val="80591488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Jobs completion state</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>Infinite Queues</a:t>
+            </a:r>
+            <a:endParaRPr lang="he-IL" sz="1600"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="percentStacked"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>HP job completed &amp; LP job dropped-on-sybling-completion</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>plot1_fine_granned!$I$2:$I$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>plot1_fine_granned!$Q$2:$Q$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.95389942000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93595545000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91901149000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.90413317999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89057613000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.87904431999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.86891799999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.86020763</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.85297177000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.84681434</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.84226053000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.83898549</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.83687584999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.83583991000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.83598212000000005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.83766125000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.84071419000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.84530848000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.85134025000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.85862073000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>HP job dropped-on-sybling-completion &amp; LP job completed</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>plot1_fine_granned!$T$2:$T$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>4.6100580000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.4044550000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.098851E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.5866820000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10942387000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12095568</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.131082</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.13979237</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.14702823000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.15318566</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.15773946999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.16101451</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.16312415</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.16416009000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.16401788</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.16233875</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.15928581</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.15469152</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.14865975000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.14137927</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls/>
+        <c:axId val="118505472"/>
+        <c:axId val="118507008"/>
+      </c:areaChart>
+      <c:catAx>
+        <c:axId val="118505472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Load</a:t>
+                </a:r>
+                <a:endParaRPr lang="he-IL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="118507008"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="118507008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.75000000000000011"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="118505472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
       <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1512,15 +2188,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>990600</xdr:colOff>
+      <xdr:colOff>990599</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>1400175</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1542,15 +2218,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:colOff>895350</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1572,14 +2248,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>38099</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:colOff>904874</xdr:colOff>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1602,15 +2278,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1104899</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>1000124</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>628649</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1629,11 +2305,41 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="תרשים 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1919,8 +2625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G20" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O20"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="K59" sqref="K59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Oblivious Load Balance Simulator/output/plot1_fine_granned.xlsx
+++ b/Oblivious Load Balance Simulator/output/plot1_fine_granned.xlsx
@@ -646,8 +646,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>LP Jobs average time in system/Load</a:t>
+              <a:t>LP Jobs </a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>Average Waiting Time</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
           <a:p>
             <a:pPr>
@@ -680,6 +685,9 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>plot1_fine_granned!$I$2:$I$21</c:f>
@@ -820,11 +828,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="80312960"/>
-        <c:axId val="80318848"/>
+        <c:axId val="66091648"/>
+        <c:axId val="66102400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="80312960"/>
+        <c:axId val="66091648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -850,16 +858,17 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80318848"/>
+        <c:crossAx val="66102400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80318848"/>
+        <c:axId val="66102400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="20"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
@@ -884,20 +893,16 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80312960"/>
+        <c:crossAx val="66091648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -939,7 +944,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>LP Queue average length/Load</a:t>
+              <a:t>LP Queues Average Length</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -995,6 +1000,9 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>plot1_fine_granned!$I$2:$I$21</c:f>
@@ -1135,11 +1143,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="80339328"/>
-        <c:axId val="80340864"/>
+        <c:axId val="71828608"/>
+        <c:axId val="71830528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="80339328"/>
+        <c:axId val="71828608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1165,16 +1173,17 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80340864"/>
+        <c:crossAx val="71830528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80340864"/>
+        <c:axId val="71830528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="40"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
@@ -1199,20 +1208,16 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80339328"/>
+        <c:crossAx val="71828608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1254,7 +1259,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>HP Queue average length/Load</a:t>
+              <a:t>HP Queue Average Length</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -1310,6 +1315,16 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>plot1_fine_granned!$I$2:$I$21</c:f>
@@ -1450,11 +1465,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="80578048"/>
-        <c:axId val="80579584"/>
+        <c:axId val="71867392"/>
+        <c:axId val="71890048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="80578048"/>
+        <c:axId val="71867392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1480,16 +1495,17 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80579584"/>
+        <c:crossAx val="71890048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80579584"/>
+        <c:axId val="71890048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="40"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
@@ -1514,20 +1530,16 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80578048"/>
+        <c:crossAx val="71867392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1569,7 +1581,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>HP Jobs average time in system/Load</a:t>
+              <a:t>HP Jobs Average Waiting Time</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -1625,6 +1637,16 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>plot1_fine_granned!$I$2:$I$21</c:f>
@@ -1765,11 +1787,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="80591488"/>
-        <c:axId val="82055552"/>
+        <c:axId val="71795840"/>
+        <c:axId val="71797760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="80591488"/>
+        <c:axId val="71795840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1795,16 +1817,17 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82055552"/>
+        <c:crossAx val="71797760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82055552"/>
+        <c:axId val="71797760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="20"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
@@ -1829,20 +1852,16 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80591488"/>
+        <c:crossAx val="71795840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2115,12 +2134,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="118505472"/>
-        <c:axId val="118507008"/>
+        <c:axId val="71893760"/>
+        <c:axId val="71895680"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="118505472"/>
+        <c:axId val="71893760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2147,37 +2165,37 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118507008"/>
+        <c:crossAx val="71895680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="118507008"/>
+        <c:axId val="71895680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0.75000000000000011"/>
+          <c:min val="0.75000000000000022"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118505472"/>
+        <c:crossAx val="71893760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2189,14 +2207,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>990599</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>66674</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2219,14 +2237,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>895350</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2285,8 +2303,8 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2625,8 +2643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="K59" sqref="K59"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="L63" sqref="L63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
